--- a/Control.xlsx
+++ b/Control.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\BOT RETPER IIBB ARBA AGIP\RETPER ARBA y AGIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB895F-C309-4B07-8DCE-E656F95BBA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="ARBA" sheetId="1" r:id="rId1"/>
-    <sheet name="AGIP" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="ARBA" sheetId="1" r:id="rId1"/>
+    <x:sheet name="AGIP" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -31,102 +32,151 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>Fila</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>Fila</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resultado</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No Hay Retenciones para el Período</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="-0.499984740745262"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="2">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,47 +441,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A4" sqref="A4 A4:B11"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="83.096875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83234B9A-6235-4287-BF10-751A5EDFEACE}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{83234B9A-6235-4287-BF10-751A5EDFEACE}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B5" sqref="B5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Control.xlsx
+++ b/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\BOT RETPER IIBB ARBA AGIP\RETPER ARBA y AGIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A8A56-50CF-4A3A-BCF5-351C3C77CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B54137-944F-41EB-8F6C-E0AEF4789333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="140" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
